--- a/contact/U14G.xlsx
+++ b/contact/U14G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88AD658B-EF38-4063-8F6D-EF9C23D757ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E8DBEA-C320-4AA6-A0D1-9C0E4671E30F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U14G" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
-  <si>
-    <t>Active Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -205,24 +202,6 @@
     <t>m.ald37@outlook.com</t>
   </si>
   <si>
-    <t>Rogers, Kendall</t>
-  </si>
-  <si>
-    <t>Rogers, Tamara</t>
-  </si>
-  <si>
-    <t>0414 534 823</t>
-  </si>
-  <si>
-    <t>tamara.rogers@bigpond.com</t>
-  </si>
-  <si>
-    <t>Rogers, Cameron</t>
-  </si>
-  <si>
-    <t>0400 957 341</t>
-  </si>
-  <si>
     <t>Stocker, Tori</t>
   </si>
   <si>
@@ -259,94 +238,13 @@
     <t>0438 655 668</t>
   </si>
   <si>
-    <t>Historical Players</t>
-  </si>
-  <si>
-    <t>Harrison, Rhianna</t>
-  </si>
-  <si>
-    <t>Harrison, Nicole</t>
-  </si>
-  <si>
-    <t>0439 227 609</t>
-  </si>
-  <si>
-    <t>jettharto12@gmail.com</t>
-  </si>
-  <si>
-    <t>Lewis, Mikayla</t>
-  </si>
-  <si>
-    <t>simmonds, Jamie</t>
-  </si>
-  <si>
-    <t>0448 115 644</t>
-  </si>
-  <si>
-    <t>sammyandkaylabear@hotmail.com</t>
-  </si>
-  <si>
-    <t>Lewis, Sam</t>
-  </si>
-  <si>
-    <t>Paras, Rubee</t>
-  </si>
-  <si>
-    <t>Paras, Parry</t>
-  </si>
-  <si>
-    <t>0414 970 225</t>
-  </si>
-  <si>
-    <t>mrelectroman1@gmail.com</t>
-  </si>
-  <si>
-    <t>Ricketts, Kirstyn</t>
-  </si>
-  <si>
-    <t>0433 965 454</t>
-  </si>
-  <si>
-    <t>Ramadge, Chelsea</t>
-  </si>
-  <si>
-    <t>Ramadge, Matt</t>
-  </si>
-  <si>
-    <t>0477 868 421</t>
-  </si>
-  <si>
-    <t>rammo1721@gmail.com</t>
-  </si>
-  <si>
-    <t>Park, Sarah</t>
-  </si>
-  <si>
-    <t>0411 146 549</t>
-  </si>
-  <si>
-    <t>matheson, ava</t>
-  </si>
-  <si>
-    <t>Gowland, Kristy</t>
-  </si>
-  <si>
-    <t>0477 090 047</t>
-  </si>
-  <si>
-    <t>gowlandkristy@gmail.com</t>
-  </si>
-  <si>
-    <t>Fletcher, Martin</t>
-  </si>
-  <si>
-    <t>0402 266 330</t>
+    <t>Registered Players</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -839,6 +737,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -846,7 +745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1201,12 +1099,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -1216,533 +1114,375 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>65</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
       <c r="G17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" t="s">
-        <v>104</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/contact/U14G.xlsx
+++ b/contact/U14G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E8DBEA-C320-4AA6-A0D1-9C0E4671E30F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82280180-6038-43D4-A86A-02141BEC022E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U14G" sheetId="1" r:id="rId1"/>
@@ -1104,17 +1104,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1290,7 +1290,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1305,7 +1306,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1466,32 +1467,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U14G.xlsx
+++ b/contact/U14G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82280180-6038-43D4-A86A-02141BEC022E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2DEE91-AB9A-4E93-AD60-BE7FD495E60E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U14G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -139,106 +139,16 @@
     <t/>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
-    <t>Cossens, Elena</t>
-  </si>
-  <si>
-    <t>Cossens, Lisa</t>
-  </si>
-  <si>
-    <t>0405 154 850</t>
-  </si>
-  <si>
-    <t>lisa.cossens@gmail.com</t>
-  </si>
-  <si>
-    <t>Cossens, David</t>
-  </si>
-  <si>
-    <t>0414 545 795</t>
-  </si>
-  <si>
-    <t>Johnson, Amy</t>
-  </si>
-  <si>
-    <t>Johnson, Kym</t>
-  </si>
-  <si>
-    <t>0412 042 249</t>
-  </si>
-  <si>
-    <t>kymbojohnson@gmail.com</t>
-  </si>
-  <si>
-    <t>Johnson, Keith</t>
-  </si>
-  <si>
-    <t>0413 255 274</t>
-  </si>
-  <si>
-    <t>Nackovski, Kristina</t>
-  </si>
-  <si>
-    <t>Nackovski, Pete</t>
-  </si>
-  <si>
-    <t>0438 465 561</t>
-  </si>
-  <si>
-    <t>pnackovski@hotmail.com</t>
-  </si>
-  <si>
-    <t>Niksic, Kayla</t>
-  </si>
-  <si>
-    <t>Alderton, Melanie</t>
-  </si>
-  <si>
-    <t>0426 901 046</t>
-  </si>
-  <si>
-    <t>m.ald37@outlook.com</t>
-  </si>
-  <si>
-    <t>Stocker, Tori</t>
-  </si>
-  <si>
-    <t>Korver, Lisa</t>
-  </si>
-  <si>
-    <t>0403 396 758</t>
-  </si>
-  <si>
-    <t>lisak@banktech.com.au</t>
-  </si>
-  <si>
-    <t>Stocker, Rob</t>
-  </si>
-  <si>
-    <t>0488 222 281</t>
-  </si>
-  <si>
-    <t>Torney, Kiara</t>
-  </si>
-  <si>
-    <t>Torney, Belinda</t>
-  </si>
-  <si>
-    <t>0409 149 366</t>
-  </si>
-  <si>
-    <t>belinda.torney59@gmail.com</t>
-  </si>
-  <si>
-    <t>Torney, Shaun</t>
-  </si>
-  <si>
-    <t>0438 655 668</t>
-  </si>
-  <si>
     <t>Registered Players</t>
+  </si>
+  <si>
+    <t>tipprincess@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>dragana@icircle.net</t>
+  </si>
+  <si>
+    <t>golfman05@live.com</t>
   </si>
 </sst>
 </file>
@@ -1100,23 +1010,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1129,7 +1039,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1172,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1195,10 +1105,10 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1244,7 +1154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1264,10 +1174,10 @@
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1287,194 +1197,22 @@
         <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U14G.xlsx
+++ b/contact/U14G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2DEE91-AB9A-4E93-AD60-BE7FD495E60E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F343E0-D1E7-4047-845D-A6B1030AE4DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U14G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>golfman05@live.com</t>
+  </si>
+  <si>
+    <t>Pullen, Tiarnah</t>
+  </si>
+  <si>
+    <t>Pullen, Joanne</t>
+  </si>
+  <si>
+    <t>0433 579 092</t>
+  </si>
+  <si>
+    <t>joannemelb@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1156,47 +1168,70 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>38</v>
       </c>
     </row>

--- a/contact/U14G.xlsx
+++ b/contact/U14G.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F343E0-D1E7-4047-845D-A6B1030AE4DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C964FA-C320-4EFD-A0E0-412038709E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
